--- a/excel_bilibili_1800.xlsx
+++ b/excel_bilibili_1800.xlsx
@@ -5,14 +5,14 @@
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId5"/>
+    <sheet name="Bullets" sheetId="1" r:id="rId4"/>
+    <sheet name="Function" sheetId="2" r:id="rId5"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="54">
   <si>
     <t>EP</t>
   </si>
@@ -129,6 +129,51 @@
   </si>
   <si>
     <t>02Excel 格式设置</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>A2:A10</t>
+  </si>
+  <si>
+    <t>选择A2到A10单元格</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>$A$2:A10</t>
+  </si>
+  <si>
+    <t>A2单元格为固定不变</t>
+  </si>
+  <si>
+    <t>SUMIF(range, condition[, returnValue])</t>
+  </si>
+  <si>
+    <t>SUMIF(A2:A10, B3[, C3])</t>
+  </si>
+  <si>
+    <t>找到A2到A10之间等于B3的单元格，在C3处返回求和</t>
+  </si>
+  <si>
+    <t>LOOKUP(key, referKey, returnValue)</t>
+  </si>
+  <si>
+    <t>LOOKUP($D$2:D3, A2, $H$2:H3)</t>
+  </si>
+  <si>
+    <t>根据A列的值找到对应D列对应的值返回H列的value</t>
   </si>
 </sst>
 </file>
@@ -242,7 +287,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -277,6 +322,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1814,89 +1862,282 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.25" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="11" customWidth="1"/>
-    <col min="2" max="2" width="8.85156" style="11" customWidth="1"/>
-    <col min="3" max="3" width="8.85156" style="11" customWidth="1"/>
+    <col min="1" max="1" width="37.7422" style="11" customWidth="1"/>
+    <col min="2" max="2" width="40.9766" style="11" customWidth="1"/>
+    <col min="3" max="3" width="44" style="11" customWidth="1"/>
     <col min="4" max="4" width="8.85156" style="11" customWidth="1"/>
     <col min="5" max="5" width="8.85156" style="11" customWidth="1"/>
-    <col min="6" max="256" width="8.85156" style="11" customWidth="1"/>
+    <col min="6" max="6" width="8.85156" style="11" customWidth="1"/>
+    <col min="7" max="7" width="8.85156" style="11" customWidth="1"/>
+    <col min="8" max="8" width="8.85156" style="11" customWidth="1"/>
+    <col min="9" max="9" width="8.85156" style="11" customWidth="1"/>
+    <col min="10" max="10" width="8.85156" style="11" customWidth="1"/>
+    <col min="11" max="256" width="8.85156" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16" customHeight="1">
-      <c r="A1" s="12"/>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
+      <c r="A1" t="s" s="12">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s" s="12">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s" s="12">
+        <v>41</v>
+      </c>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
     </row>
     <row r="2" ht="16" customHeight="1">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
+      <c r="A2" t="s" s="12">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s" s="12">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s" s="12">
+        <v>44</v>
+      </c>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
     </row>
     <row r="3" ht="16" customHeight="1">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
+      <c r="A3" t="s" s="12">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s" s="12">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s" s="12">
+        <v>47</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
     </row>
     <row r="4" ht="16" customHeight="1">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
+      <c r="A4" t="s" s="12">
+        <v>48</v>
+      </c>
+      <c r="B4" t="s" s="12">
+        <v>49</v>
+      </c>
+      <c r="C4" t="s" s="12">
+        <v>50</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
     </row>
     <row r="5" ht="16" customHeight="1">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
+      <c r="A5" t="s" s="12">
+        <v>51</v>
+      </c>
+      <c r="B5" t="s" s="12">
+        <v>52</v>
+      </c>
+      <c r="C5" t="s" s="12">
+        <v>53</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
     </row>
     <row r="6" ht="16" customHeight="1">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
     </row>
     <row r="7" ht="16" customHeight="1">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
     </row>
     <row r="8" ht="16" customHeight="1">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
     </row>
     <row r="9" ht="16" customHeight="1">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
     </row>
     <row r="10" ht="16" customHeight="1">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+    </row>
+    <row r="11" ht="16" customHeight="1">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+    </row>
+    <row r="12" ht="16" customHeight="1">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+    </row>
+    <row r="13" ht="16" customHeight="1">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+    </row>
+    <row r="14" ht="16" customHeight="1">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+    </row>
+    <row r="15" ht="16" customHeight="1">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+    </row>
+    <row r="16" ht="16" customHeight="1">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+    </row>
+    <row r="17" ht="16" customHeight="1">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+    </row>
+    <row r="18" ht="16" customHeight="1">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+    </row>
+    <row r="19" ht="16" customHeight="1">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel_bilibili_1800.xlsx
+++ b/excel_bilibili_1800.xlsx
@@ -1,18 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiangyan.gao\Desktop\Github\bullets-master\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F25E30AB-A8CD-4706-948E-FB2D44BF09CB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Bullets" sheetId="1" r:id="rId4"/>
-    <sheet name="Function" sheetId="2" r:id="rId5"/>
+    <sheet name="Bullets" sheetId="1" r:id="rId1"/>
+    <sheet name="Function" sheetId="2" r:id="rId2"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="66">
   <si>
     <t>EP</t>
   </si>
@@ -110,97 +119,153 @@
     <t>特殊拖拽</t>
   </si>
   <si>
+    <t>自定义列表</t>
+  </si>
+  <si>
+    <t>文件-选项-高级-编辑自定义列表</t>
+  </si>
+  <si>
+    <t>创建自定义列表</t>
+  </si>
+  <si>
+    <t>快速选择多个单元格</t>
+  </si>
+  <si>
+    <t>在需要选择很多单元格的时候可以使用左上角的名称框，比如 2:900 选择第2行到第900行</t>
+  </si>
+  <si>
+    <t>02Excel 格式设置</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>A2:A10</t>
+  </si>
+  <si>
+    <t>选择A2到A10单元格</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>$A$2:A10</t>
+  </si>
+  <si>
+    <t>A2单元格为固定不变</t>
+  </si>
+  <si>
+    <t>找到A2到A10之间等于B3的单元格，在C3处返回求和</t>
+  </si>
+  <si>
+    <t>LOOKUP($D$2:D3, A2, $H$2:H3)</t>
+  </si>
+  <si>
+    <t>根据A列的值找到对应D列对应的值返回H列的value</t>
+  </si>
+  <si>
     <t>鼠标先点击右键之后再左键拖拽会出现特殊拖拽选项框</t>
-  </si>
-  <si>
-    <t>自定义列表</t>
-  </si>
-  <si>
-    <t>文件-选项-高级-编辑自定义列表</t>
-  </si>
-  <si>
-    <t>创建自定义列表</t>
-  </si>
-  <si>
-    <t>快速选择多个单元格</t>
-  </si>
-  <si>
-    <t>在需要选择很多单元格的时候可以使用左上角的名称框，比如 2:900 选择第2行到第900行</t>
-  </si>
-  <si>
-    <t>02Excel 格式设置</t>
-  </si>
-  <si>
-    <t>Key</t>
-  </si>
-  <si>
-    <t>Example</t>
-  </si>
-  <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>:</t>
-  </si>
-  <si>
-    <t>A2:A10</t>
-  </si>
-  <si>
-    <t>选择A2到A10单元格</t>
-  </si>
-  <si>
-    <t>$</t>
-  </si>
-  <si>
-    <t>$A$2:A10</t>
-  </si>
-  <si>
-    <t>A2单元格为固定不变</t>
-  </si>
-  <si>
-    <t>SUMIF(range, condition[, returnValue])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUMIF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOOKUP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SUMIF(A2:A10, B3[, C3])</t>
-  </si>
-  <si>
-    <t>找到A2到A10之间等于B3的单元格，在C3处返回求和</t>
-  </si>
-  <si>
-    <t>LOOKUP(key, referKey, returnValue)</t>
-  </si>
-  <si>
-    <t>LOOKUP($D$2:D3, A2, $H$2:H3)</t>
-  </si>
-  <si>
-    <t>根据A列的值找到对应D列对应的值返回H列的value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双击格式刷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择单元格之后双击格式刷可以连续点击别的单元格来复制格式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快速格式多个单元格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快捷键：输入当前日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义单元格格式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右键设置单元格格式 自定义-;;; 可以表面的隐藏数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐藏数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ctrl + :</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ctrl + e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快速拆分数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据左右两侧的单元格来进行数据的拆分，并自动填充</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="等线"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
+      <sz val="9"/>
+      <name val="DengXian"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="14"/>
+      <b/>
+      <sz val="11"/>
+      <name val="等线"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="等线"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -213,43 +278,18 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -283,79 +323,156 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+  <cellXfs count="22">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="46" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="46" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -557,7 +674,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -576,7 +693,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -606,7 +723,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -632,7 +749,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -658,7 +775,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -684,7 +801,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -710,7 +827,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -736,7 +853,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -762,7 +879,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -788,7 +905,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -814,7 +931,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -827,9 +944,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -846,7 +969,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -865,7 +988,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -891,7 +1014,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -917,7 +1040,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -943,7 +1066,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -969,7 +1092,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -995,7 +1118,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1021,7 +1144,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1047,7 +1170,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1073,7 +1196,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1099,7 +1222,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1112,9 +1235,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1128,7 +1257,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1147,7 +1276,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1177,7 +1306,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1203,7 +1332,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1229,7 +1358,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1255,7 +1384,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1281,7 +1410,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1307,7 +1436,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1333,7 +1462,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1359,7 +1488,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1385,7 +1514,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1398,462 +1527,501 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:IV30"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:G1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.25" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.1328" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.1719" style="1" customWidth="1"/>
-    <col min="4" max="4" width="73" style="1" customWidth="1"/>
-    <col min="5" max="5" width="27.6719" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.6719" style="1" customWidth="1"/>
-    <col min="8" max="256" width="8.85156" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.25" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="81.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.75" style="1" customWidth="1"/>
+    <col min="8" max="256" width="8.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:7" ht="15.95" customHeight="1">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="3">
+      <c r="F1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="4">
+    </row>
+    <row r="2" spans="1:7" ht="15.95" customHeight="1">
+      <c r="A2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.95" customHeight="1">
+      <c r="A3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="6">
+        <v>8.2407407407407412E-3</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.95" customHeight="1">
+      <c r="A4" s="12"/>
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="6">
+        <v>1.7314814814814811E-2</v>
+      </c>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.95" customHeight="1">
+      <c r="A5" s="12"/>
+      <c r="B5" s="5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="6">
+        <v>2.9976851851851848E-2</v>
+      </c>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.95" customHeight="1">
+      <c r="A6" s="12"/>
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="6">
+        <v>3.1284722222222221E-2</v>
+      </c>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.95" customHeight="1">
+      <c r="A7" s="12"/>
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="6">
+        <v>3.2881944444444443E-2</v>
+      </c>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.95" customHeight="1">
+      <c r="A8" s="12"/>
+      <c r="B8" s="5">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" ht="16" customHeight="1">
-      <c r="A2" t="s" s="5">
+      <c r="C8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="6">
+        <v>3.6990740740740741E-2</v>
+      </c>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.95" customHeight="1">
+      <c r="A9" s="12"/>
+      <c r="B9" s="5">
         <v>7</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-    </row>
-    <row r="3" ht="16" customHeight="1">
-      <c r="A3" t="s" s="7">
+      <c r="C9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="6">
+        <v>4.0775462962962958E-2</v>
+      </c>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.95" customHeight="1">
+      <c r="A10" s="12"/>
+      <c r="B10" s="5">
         <v>8</v>
       </c>
-      <c r="B3" s="8">
+      <c r="C10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="6">
+        <v>4.1736111111111113E-2</v>
+      </c>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.95" customHeight="1">
+      <c r="A11" s="12"/>
+      <c r="B11" s="5">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="6">
+        <v>4.5636574074074072E-2</v>
+      </c>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.95" customHeight="1">
+      <c r="A12" s="12"/>
+      <c r="B12" s="5">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="6">
+        <v>4.7997685185185185E-2</v>
+      </c>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.95" customHeight="1">
+      <c r="A13" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="7">
         <v>1</v>
       </c>
-      <c r="C3" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s" s="7">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s" s="7">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="G3" s="9">
-        <v>0.008240740740740741</v>
-      </c>
-    </row>
-    <row r="4" ht="16" customHeight="1">
-      <c r="A4" s="10"/>
-      <c r="B4" s="8">
+      <c r="C13" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="6">
+        <v>1.6319444444444445E-2</v>
+      </c>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.95" customHeight="1">
+      <c r="A14" s="12"/>
+      <c r="B14" s="7">
         <v>2</v>
       </c>
-      <c r="C4" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="9">
-        <v>0.01731481481481481</v>
-      </c>
-    </row>
-    <row r="5" ht="16" customHeight="1">
-      <c r="A5" s="10"/>
-      <c r="B5" s="8">
+      <c r="C14" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="1:7" ht="15.95" customHeight="1">
+      <c r="A15" s="12"/>
+      <c r="B15" s="7">
         <v>3</v>
       </c>
-      <c r="C5" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s" s="7">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s" s="7">
-        <v>18</v>
-      </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="9">
-        <v>0.02997685185185185</v>
-      </c>
-    </row>
-    <row r="6" ht="16" customHeight="1">
-      <c r="A6" s="10"/>
-      <c r="B6" s="8">
+      <c r="C15" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" s="6">
+        <v>3.0173611111111113E-2</v>
+      </c>
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="1:7" ht="15.95" customHeight="1">
+      <c r="A16" s="12"/>
+      <c r="B16" s="7">
         <v>4</v>
       </c>
-      <c r="C6" t="s" s="7">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s" s="7">
-        <v>20</v>
-      </c>
-      <c r="E6" t="s" s="7">
-        <v>21</v>
-      </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="9">
-        <v>0.03128472222222222</v>
-      </c>
-    </row>
-    <row r="7" ht="16" customHeight="1">
-      <c r="A7" s="10"/>
-      <c r="B7" s="8">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s" s="7">
-        <v>22</v>
-      </c>
-      <c r="D7" t="s" s="7">
-        <v>23</v>
-      </c>
-      <c r="E7" t="s" s="7">
-        <v>24</v>
-      </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="9">
-        <v>0.03288194444444444</v>
-      </c>
-    </row>
-    <row r="8" ht="16" customHeight="1">
-      <c r="A8" s="10"/>
-      <c r="B8" s="8">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s" s="7">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="E8" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="9">
-        <v>0.03699074074074074</v>
-      </c>
-    </row>
-    <row r="9" ht="16" customHeight="1">
-      <c r="A9" s="10"/>
-      <c r="B9" s="8">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s" s="7">
-        <v>28</v>
-      </c>
-      <c r="D9" t="s" s="7">
-        <v>29</v>
-      </c>
-      <c r="E9" t="s" s="7">
-        <v>30</v>
-      </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="9">
-        <v>0.04077546296296296</v>
-      </c>
-    </row>
-    <row r="10" ht="16" customHeight="1">
-      <c r="A10" s="10"/>
-      <c r="B10" s="8">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s" s="7">
-        <v>31</v>
-      </c>
-      <c r="D10" t="s" s="7">
-        <v>32</v>
-      </c>
-      <c r="E10" t="s" s="7">
-        <v>31</v>
-      </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="9">
-        <v>0.04173611111111111</v>
-      </c>
-    </row>
-    <row r="11" ht="16" customHeight="1">
-      <c r="A11" s="10"/>
-      <c r="B11" s="8">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s" s="7">
-        <v>33</v>
-      </c>
-      <c r="D11" t="s" s="7">
-        <v>34</v>
-      </c>
-      <c r="E11" t="s" s="7">
-        <v>35</v>
-      </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="9">
-        <v>0.04563657407407407</v>
-      </c>
-    </row>
-    <row r="12" ht="16" customHeight="1">
-      <c r="A12" s="10"/>
-      <c r="B12" s="8">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s" s="7">
-        <v>36</v>
-      </c>
-      <c r="D12" t="s" s="7">
-        <v>37</v>
-      </c>
-      <c r="E12" t="s" s="7">
-        <v>36</v>
-      </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="9">
-        <v>0.04563657407407407</v>
-      </c>
-    </row>
-    <row r="13" ht="16" customHeight="1">
-      <c r="A13" t="s" s="7">
-        <v>38</v>
-      </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="9">
-        <v>0.04563657407407407</v>
-      </c>
-    </row>
-    <row r="14" ht="16" customHeight="1">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="9">
-        <v>0.04563657407407407</v>
-      </c>
-    </row>
-    <row r="15" ht="16" customHeight="1">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="9">
-        <v>0.04563657407407407</v>
-      </c>
-    </row>
-    <row r="16" ht="16" customHeight="1">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="9">
-        <v>0.04563657407407407</v>
-      </c>
-    </row>
-    <row r="17" ht="16" customHeight="1">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="9">
-        <v>0.04563657407407407</v>
-      </c>
-    </row>
-    <row r="18" ht="16" customHeight="1">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="9">
-        <v>0.04563657407407407</v>
-      </c>
-    </row>
-    <row r="19" ht="16" customHeight="1">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="9">
-        <v>0.04563657407407407</v>
-      </c>
-    </row>
-    <row r="20" ht="16" customHeight="1">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="9">
-        <v>0.04563657407407407</v>
-      </c>
-    </row>
-    <row r="21" ht="16" customHeight="1">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="9">
-        <v>0.04563657407407407</v>
-      </c>
-    </row>
-    <row r="22" ht="16" customHeight="1">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="9">
-        <v>0.04563657407407407</v>
-      </c>
-    </row>
-    <row r="23" ht="16" customHeight="1">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="9">
-        <v>0.04563657407407407</v>
-      </c>
-    </row>
-    <row r="24" ht="16" customHeight="1">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="9">
-        <v>0.04563657407407407</v>
-      </c>
-    </row>
-    <row r="25" ht="16" customHeight="1">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="9">
-        <v>0.04563657407407407</v>
-      </c>
-    </row>
-    <row r="26" ht="16" customHeight="1">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="9">
-        <v>0.04563657407407407</v>
-      </c>
-    </row>
-    <row r="27" ht="16" customHeight="1">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="9">
-        <v>0.04563657407407407</v>
-      </c>
-    </row>
-    <row r="28" ht="16" customHeight="1">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="9"/>
-    </row>
-    <row r="29" ht="16" customHeight="1">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="9"/>
-    </row>
-    <row r="30" ht="16" customHeight="1">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="9"/>
+      <c r="C16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="1:7" ht="15.95" customHeight="1">
+      <c r="A17" s="12"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="6">
+        <v>4.5636574074074072E-2</v>
+      </c>
+      <c r="G17" s="7"/>
+    </row>
+    <row r="18" spans="1:7" ht="15.95" customHeight="1">
+      <c r="A18" s="12"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="6">
+        <v>4.5636574074074072E-2</v>
+      </c>
+      <c r="G18" s="7"/>
+    </row>
+    <row r="19" spans="1:7" ht="15.95" customHeight="1">
+      <c r="A19" s="12"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="6">
+        <v>4.5636574074074072E-2</v>
+      </c>
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" spans="1:7" ht="15.95" customHeight="1">
+      <c r="A20" s="12"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="6">
+        <v>4.5636574074074072E-2</v>
+      </c>
+      <c r="G20" s="7"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.95" customHeight="1">
+      <c r="A21" s="12"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="6">
+        <v>4.5636574074074072E-2</v>
+      </c>
+      <c r="G21" s="7"/>
+    </row>
+    <row r="22" spans="1:7" ht="15.95" customHeight="1">
+      <c r="A22" s="12"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="6">
+        <v>4.5636574074074072E-2</v>
+      </c>
+      <c r="G22" s="7"/>
+    </row>
+    <row r="23" spans="1:7" ht="15.95" customHeight="1">
+      <c r="A23" s="12"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="6">
+        <v>4.5636574074074072E-2</v>
+      </c>
+      <c r="G23" s="7"/>
+    </row>
+    <row r="24" spans="1:7" ht="15.95" customHeight="1">
+      <c r="A24" s="12"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="6">
+        <v>4.5636574074074072E-2</v>
+      </c>
+      <c r="G24" s="7"/>
+    </row>
+    <row r="25" spans="1:7" ht="15.95" customHeight="1">
+      <c r="A25" s="12"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="6">
+        <v>4.5636574074074072E-2</v>
+      </c>
+      <c r="G25" s="7"/>
+    </row>
+    <row r="26" spans="1:7" ht="15.95" customHeight="1">
+      <c r="A26" s="12"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="6">
+        <v>4.5636574074074072E-2</v>
+      </c>
+      <c r="G26" s="7"/>
+    </row>
+    <row r="27" spans="1:7" ht="15.95" customHeight="1">
+      <c r="A27" s="12"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="6">
+        <v>4.5636574074074072E-2</v>
+      </c>
+      <c r="G27" s="7"/>
+    </row>
+    <row r="28" spans="1:7" ht="15.95" customHeight="1">
+      <c r="A28" s="13"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="1:7" ht="15.95" customHeight="1">
+      <c r="A29" s="13"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="1:7" ht="15.95" customHeight="1">
+      <c r="A30" s="13"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:G2"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -1861,287 +2029,285 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:IV19"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G15" sqref="G15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.25" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="37.7422" style="11" customWidth="1"/>
-    <col min="2" max="2" width="40.9766" style="11" customWidth="1"/>
-    <col min="3" max="3" width="44" style="11" customWidth="1"/>
-    <col min="4" max="4" width="8.85156" style="11" customWidth="1"/>
-    <col min="5" max="5" width="8.85156" style="11" customWidth="1"/>
-    <col min="6" max="6" width="8.85156" style="11" customWidth="1"/>
-    <col min="7" max="7" width="8.85156" style="11" customWidth="1"/>
-    <col min="8" max="8" width="8.85156" style="11" customWidth="1"/>
-    <col min="9" max="9" width="8.85156" style="11" customWidth="1"/>
-    <col min="10" max="10" width="8.85156" style="11" customWidth="1"/>
-    <col min="11" max="256" width="8.85156" style="11" customWidth="1"/>
+    <col min="1" max="1" width="8.375" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41" style="15" customWidth="1"/>
+    <col min="3" max="3" width="48.625" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="256" width="8.875" style="15" customWidth="1"/>
+    <col min="257" max="16384" width="8.875" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16" customHeight="1">
-      <c r="A1" t="s" s="12">
+    <row r="1" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A1" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B1" t="s" s="12">
+      <c r="C1" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C1" t="s" s="12">
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A2" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-    </row>
-    <row r="2" ht="16" customHeight="1">
-      <c r="A2" t="s" s="12">
+      <c r="B2" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="B2" t="s" s="12">
+      <c r="C2" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C2" t="s" s="12">
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A3" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-    </row>
-    <row r="3" ht="16" customHeight="1">
-      <c r="A3" t="s" s="12">
+      <c r="B3" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="B3" t="s" s="12">
+      <c r="C3" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C3" t="s" s="12">
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A4" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-    </row>
-    <row r="4" ht="16" customHeight="1">
-      <c r="A4" t="s" s="12">
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A5" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="B4" t="s" s="12">
+      <c r="C5" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C4" t="s" s="12">
-        <v>50</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-    </row>
-    <row r="5" ht="16" customHeight="1">
-      <c r="A5" t="s" s="12">
-        <v>51</v>
-      </c>
-      <c r="B5" t="s" s="12">
-        <v>52</v>
-      </c>
-      <c r="C5" t="s" s="12">
-        <v>53</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-    </row>
-    <row r="6" ht="16" customHeight="1">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-    </row>
-    <row r="7" ht="16" customHeight="1">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-    </row>
-    <row r="8" ht="16" customHeight="1">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-    </row>
-    <row r="9" ht="16" customHeight="1">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-    </row>
-    <row r="10" ht="16" customHeight="1">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-    </row>
-    <row r="11" ht="16" customHeight="1">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-    </row>
-    <row r="12" ht="16" customHeight="1">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-    </row>
-    <row r="13" ht="16" customHeight="1">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-    </row>
-    <row r="14" ht="16" customHeight="1">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-    </row>
-    <row r="15" ht="16" customHeight="1">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-    </row>
-    <row r="16" ht="16" customHeight="1">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-    </row>
-    <row r="17" ht="16" customHeight="1">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-    </row>
-    <row r="18" ht="16" customHeight="1">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-    </row>
-    <row r="19" ht="16" customHeight="1">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+    </row>
+    <row r="6" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A6" s="20"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A7" s="20"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A8" s="20"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A9" s="20"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+    </row>
+    <row r="10" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A10" s="20"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A11" s="20"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A12" s="20"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A13" s="20"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A14" s="20"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+    </row>
+    <row r="15" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A15" s="20"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+    </row>
+    <row r="16" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A16" s="20"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+    </row>
+    <row r="17" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A17" s="20"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+    </row>
+    <row r="18" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A18" s="20"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+    </row>
+    <row r="19" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A19" s="20"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
